--- a/data/word_profiles.xlsx
+++ b/data/word_profiles.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5455" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5455" uniqueCount="1219">
   <si>
     <t xml:space="preserve">wl_type</t>
   </si>
@@ -3086,9 +3086,6 @@
     <t xml:space="preserve">наибольшее распространение получили</t>
   </si>
   <si>
-    <t xml:space="preserve">получать</t>
-  </si>
-  <si>
     <t xml:space="preserve">получаемый</t>
   </si>
   <si>
@@ -3324,9 +3321,6 @@
     <t xml:space="preserve">кривая Филлипса показывает</t>
   </si>
   <si>
-    <t xml:space="preserve">показать</t>
-  </si>
-  <si>
     <t xml:space="preserve">показан</t>
   </si>
   <si>
@@ -3545,9 +3539,6 @@
     <t xml:space="preserve">равна приведенной стоимости</t>
   </si>
   <si>
-    <t xml:space="preserve">приводить</t>
-  </si>
-  <si>
     <t xml:space="preserve">приводить к </t>
   </si>
   <si>
@@ -3657,9 +3648,6 @@
   </si>
   <si>
     <t xml:space="preserve">должен быть заключен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">заключить</t>
   </si>
   <si>
     <t xml:space="preserve">заключить что</t>
@@ -3898,18 +3886,19 @@
   <dimension ref="A1:AB1730"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A920" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A374" activeCellId="0" sqref="A374"/>
+      <selection pane="bottomLeft" activeCell="B918" activeCellId="0" sqref="B918:B923"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="47.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="67.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="38.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="49.04"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="12.63"/>
   </cols>
   <sheetData>
@@ -19652,84 +19641,84 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="12" t="s">
         <v>987</v>
       </c>
-      <c r="B812" s="12" t="s">
-        <v>1021</v>
+      <c r="B812" s="4" t="s">
+        <v>988</v>
       </c>
       <c r="C812" s="4" t="s">
         <v>989</v>
       </c>
       <c r="D812" s="12" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E812" s="12" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F812" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="E812" s="12" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F812" s="4" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="12" t="s">
         <v>987</v>
       </c>
-      <c r="B813" s="12" t="s">
-        <v>1021</v>
+      <c r="B813" s="4" t="s">
+        <v>988</v>
       </c>
       <c r="C813" s="4" t="s">
         <v>989</v>
       </c>
       <c r="D813" s="12" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E813" s="12" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F813" s="4" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="12" t="s">
         <v>987</v>
       </c>
-      <c r="B814" s="12" t="s">
-        <v>1021</v>
+      <c r="B814" s="4" t="s">
+        <v>988</v>
       </c>
       <c r="C814" s="4" t="s">
         <v>989</v>
       </c>
       <c r="D814" s="12" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E814" s="12" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F814" s="4" t="s">
         <v>1025</v>
       </c>
-      <c r="E814" s="12" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F814" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="12" t="s">
         <v>987</v>
       </c>
-      <c r="B815" s="12" t="s">
-        <v>1021</v>
+      <c r="B815" s="4" t="s">
+        <v>988</v>
       </c>
       <c r="C815" s="4" t="s">
         <v>989</v>
       </c>
       <c r="D815" s="12" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E815" s="12" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F815" s="4" t="s">
         <v>1027</v>
-      </c>
-      <c r="E815" s="12" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F815" s="4" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19737,19 +19726,19 @@
         <v>987</v>
       </c>
       <c r="B816" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C816" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D816" s="12" t="s">
         <v>1029</v>
       </c>
-      <c r="C816" s="4" t="s">
+      <c r="E816" s="12" t="s">
         <v>1029</v>
       </c>
-      <c r="D816" s="12" t="s">
+      <c r="F816" s="4" t="s">
         <v>1030</v>
-      </c>
-      <c r="E816" s="12" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F816" s="4" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19757,19 +19746,19 @@
         <v>987</v>
       </c>
       <c r="B817" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C817" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D817" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E817" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F817" s="4" t="s">
         <v>1032</v>
-      </c>
-      <c r="E817" s="4" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F817" s="4" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19777,19 +19766,19 @@
         <v>987</v>
       </c>
       <c r="B818" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C818" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D818" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E818" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F818" s="4" t="s">
         <v>1034</v>
-      </c>
-      <c r="E818" s="4" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F818" s="4" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19797,19 +19786,19 @@
         <v>987</v>
       </c>
       <c r="B819" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C819" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D819" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E819" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F819" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19817,19 +19806,19 @@
         <v>987</v>
       </c>
       <c r="B820" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C820" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D820" s="12" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E820" s="4" t="s">
         <v>1037</v>
       </c>
-      <c r="E820" s="4" t="s">
+      <c r="F820" s="4" t="s">
         <v>1038</v>
-      </c>
-      <c r="F820" s="4" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19837,19 +19826,19 @@
         <v>987</v>
       </c>
       <c r="B821" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C821" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D821" s="12" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E821" s="12" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F821" s="4" t="s">
         <v>1040</v>
-      </c>
-      <c r="E821" s="12" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F821" s="4" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19857,19 +19846,19 @@
         <v>987</v>
       </c>
       <c r="B822" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C822" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D822" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E822" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F822" s="4" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19877,16 +19866,16 @@
         <v>987</v>
       </c>
       <c r="B823" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C823" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D823" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E823" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F823" s="4" t="s">
         <v>496</v>
@@ -19897,19 +19886,19 @@
         <v>987</v>
       </c>
       <c r="B824" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C824" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D824" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E824" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F824" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19917,19 +19906,19 @@
         <v>987</v>
       </c>
       <c r="B825" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C825" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D825" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E825" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F825" s="4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19937,19 +19926,19 @@
         <v>987</v>
       </c>
       <c r="B826" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C826" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D826" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E826" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F826" s="4" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19957,19 +19946,19 @@
         <v>987</v>
       </c>
       <c r="B827" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C827" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D827" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E827" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F827" s="4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19977,19 +19966,19 @@
         <v>987</v>
       </c>
       <c r="B828" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C828" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D828" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E828" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F828" s="4" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19997,19 +19986,19 @@
         <v>987</v>
       </c>
       <c r="B829" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C829" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D829" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E829" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F829" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20017,19 +20006,19 @@
         <v>987</v>
       </c>
       <c r="B830" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C830" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D830" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E830" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F830" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20037,19 +20026,19 @@
         <v>987</v>
       </c>
       <c r="B831" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C831" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D831" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E831" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F831" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20057,19 +20046,19 @@
         <v>987</v>
       </c>
       <c r="B832" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C832" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D832" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E832" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F832" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20077,19 +20066,19 @@
         <v>987</v>
       </c>
       <c r="B833" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C833" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D833" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E833" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F833" s="4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20097,16 +20086,16 @@
         <v>987</v>
       </c>
       <c r="B834" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C834" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D834" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E834" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F834" s="4" t="s">
         <v>16</v>
@@ -20117,19 +20106,19 @@
         <v>987</v>
       </c>
       <c r="B835" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C835" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D835" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E835" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F835" s="4" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20137,19 +20126,19 @@
         <v>987</v>
       </c>
       <c r="B836" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C836" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D836" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E836" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F836" s="4" t="s">
         <v>1054</v>
-      </c>
-      <c r="E836" s="4" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F836" s="4" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20157,16 +20146,16 @@
         <v>987</v>
       </c>
       <c r="B837" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C837" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D837" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E837" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20174,19 +20163,19 @@
         <v>987</v>
       </c>
       <c r="B838" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C838" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C838" s="12" t="s">
+      <c r="D838" s="12" t="s">
         <v>1058</v>
       </c>
-      <c r="D838" s="12" t="s">
+      <c r="E838" s="12" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F838" s="4" t="s">
         <v>1059</v>
-      </c>
-      <c r="E838" s="12" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F838" s="4" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20194,19 +20183,19 @@
         <v>987</v>
       </c>
       <c r="B839" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C839" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C839" s="12" t="s">
+      <c r="D839" s="12" t="s">
         <v>1058</v>
       </c>
-      <c r="D839" s="12" t="s">
-        <v>1059</v>
-      </c>
       <c r="E839" s="12" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F839" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20214,19 +20203,19 @@
         <v>987</v>
       </c>
       <c r="B840" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C840" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C840" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D840" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E840" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F840" s="13" t="s">
         <v>1062</v>
-      </c>
-      <c r="E840" s="4" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F840" s="13" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20234,19 +20223,19 @@
         <v>987</v>
       </c>
       <c r="B841" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C841" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C841" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D841" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E841" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F841" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20254,19 +20243,19 @@
         <v>987</v>
       </c>
       <c r="B842" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C842" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C842" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D842" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E842" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F842" s="4" t="s">
         <v>1065</v>
-      </c>
-      <c r="E842" s="4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F842" s="4" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20274,19 +20263,19 @@
         <v>987</v>
       </c>
       <c r="B843" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C843" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C843" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D843" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E843" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F843" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20294,19 +20283,19 @@
         <v>987</v>
       </c>
       <c r="B844" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C844" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C844" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D844" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E844" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F844" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20314,19 +20303,19 @@
         <v>987</v>
       </c>
       <c r="B845" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C845" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C845" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D845" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E845" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F845" s="4" t="s">
         <v>1069</v>
-      </c>
-      <c r="E845" s="4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F845" s="4" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20334,19 +20323,19 @@
         <v>987</v>
       </c>
       <c r="B846" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C846" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C846" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D846" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E846" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F846" s="4" t="s">
         <v>1071</v>
-      </c>
-      <c r="E846" s="4" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F846" s="4" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20354,19 +20343,19 @@
         <v>987</v>
       </c>
       <c r="B847" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C847" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C847" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D847" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E847" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F847" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20374,19 +20363,19 @@
         <v>987</v>
       </c>
       <c r="B848" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C848" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C848" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D848" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E848" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F848" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20394,19 +20383,19 @@
         <v>987</v>
       </c>
       <c r="B849" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C849" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C849" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D849" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E849" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F849" s="4" t="s">
         <v>1075</v>
-      </c>
-      <c r="E849" s="4" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F849" s="4" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20414,19 +20403,19 @@
         <v>987</v>
       </c>
       <c r="B850" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C850" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C850" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D850" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E850" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F850" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20434,19 +20423,19 @@
         <v>987</v>
       </c>
       <c r="B851" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C851" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C851" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D851" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E851" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F851" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20454,19 +20443,19 @@
         <v>987</v>
       </c>
       <c r="B852" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C852" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C852" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D852" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E852" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F852" s="4" t="s">
         <v>1079</v>
-      </c>
-      <c r="E852" s="4" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F852" s="4" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20474,19 +20463,19 @@
         <v>987</v>
       </c>
       <c r="B853" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C853" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C853" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D853" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E853" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F853" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20494,19 +20483,19 @@
         <v>987</v>
       </c>
       <c r="B854" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C854" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C854" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D854" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E854" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F854" s="4" t="s">
         <v>1082</v>
-      </c>
-      <c r="E854" s="4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F854" s="4" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20514,19 +20503,19 @@
         <v>987</v>
       </c>
       <c r="B855" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C855" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C855" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D855" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E855" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F855" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20534,19 +20523,19 @@
         <v>987</v>
       </c>
       <c r="B856" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C856" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C856" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D856" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E856" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F856" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20554,19 +20543,19 @@
         <v>987</v>
       </c>
       <c r="B857" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C857" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C857" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D857" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E857" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F857" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20574,19 +20563,19 @@
         <v>987</v>
       </c>
       <c r="B858" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C858" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C858" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D858" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E858" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F858" s="4" t="s">
         <v>1087</v>
-      </c>
-      <c r="E858" s="4" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F858" s="4" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20594,19 +20583,19 @@
         <v>987</v>
       </c>
       <c r="B859" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C859" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C859" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D859" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E859" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F859" s="4" t="s">
         <v>1089</v>
-      </c>
-      <c r="E859" s="4" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F859" s="4" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20614,19 +20603,19 @@
         <v>987</v>
       </c>
       <c r="B860" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C860" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C860" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D860" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E860" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F860" s="4" t="s">
         <v>1091</v>
-      </c>
-      <c r="E860" s="4" t="s">
-        <v>1091</v>
-      </c>
-      <c r="F860" s="4" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20634,19 +20623,19 @@
         <v>987</v>
       </c>
       <c r="B861" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C861" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C861" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D861" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E861" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F861" s="6" t="s">
         <v>1093</v>
-      </c>
-      <c r="E861" s="4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F861" s="6" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20654,19 +20643,19 @@
         <v>987</v>
       </c>
       <c r="B862" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C862" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C862" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D862" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E862" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F862" s="4" t="s">
         <v>1095</v>
-      </c>
-      <c r="E862" s="4" t="s">
-        <v>1095</v>
-      </c>
-      <c r="F862" s="4" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20674,19 +20663,19 @@
         <v>987</v>
       </c>
       <c r="B863" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C863" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C863" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D863" s="12" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E863" s="12" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F863" s="4" t="s">
         <v>1097</v>
-      </c>
-      <c r="E863" s="12" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F863" s="4" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20694,259 +20683,259 @@
         <v>987</v>
       </c>
       <c r="B864" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C864" s="12" t="s">
         <v>1057</v>
       </c>
-      <c r="C864" s="12" t="s">
-        <v>1058</v>
-      </c>
       <c r="D864" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E864" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F864" s="4" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="12" t="s">
         <v>987</v>
       </c>
       <c r="B865" s="12" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C865" s="12" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D865" s="12" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E865" s="12" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F865" s="4" t="s">
         <v>1100</v>
       </c>
-      <c r="C865" s="12" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D865" s="12" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E865" s="12" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F865" s="4" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="12" t="s">
         <v>987</v>
       </c>
       <c r="B866" s="12" t="s">
-        <v>1100</v>
+        <v>1056</v>
       </c>
       <c r="C866" s="12" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D866" s="12" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E866" s="12" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F866" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="E866" s="12" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F866" s="4" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="12" t="s">
         <v>987</v>
       </c>
       <c r="B867" s="12" t="s">
-        <v>1100</v>
+        <v>1056</v>
       </c>
       <c r="C867" s="12" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D867" s="12" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E867" s="12" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F867" s="4" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="12" t="s">
         <v>987</v>
       </c>
       <c r="B868" s="12" t="s">
-        <v>1100</v>
+        <v>1056</v>
       </c>
       <c r="C868" s="12" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D868" s="12" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E868" s="12" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F868" s="4" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="12" t="s">
         <v>987</v>
       </c>
       <c r="B869" s="12" t="s">
-        <v>1100</v>
+        <v>1056</v>
       </c>
       <c r="C869" s="12" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D869" s="12" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E869" s="12" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F869" s="4" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="12" t="s">
         <v>987</v>
       </c>
       <c r="B870" s="12" t="s">
-        <v>1100</v>
+        <v>1056</v>
       </c>
       <c r="C870" s="12" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D870" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E870" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F870" s="4" t="s">
         <v>1107</v>
       </c>
-      <c r="E870" s="4" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F870" s="4" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="12" t="s">
         <v>987</v>
       </c>
       <c r="B871" s="12" t="s">
-        <v>1100</v>
+        <v>1056</v>
       </c>
       <c r="C871" s="12" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D871" s="13" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E871" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F871" s="4" t="s">
         <v>1108</v>
       </c>
-      <c r="F871" s="4" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="12" t="s">
         <v>987</v>
       </c>
       <c r="B872" s="12" t="s">
-        <v>1100</v>
+        <v>1056</v>
       </c>
       <c r="C872" s="12" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D872" s="13" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E872" s="4" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="F872" s="4" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="12" t="s">
         <v>987</v>
       </c>
       <c r="B873" s="12" t="s">
-        <v>1100</v>
+        <v>1056</v>
       </c>
       <c r="C873" s="12" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D873" s="13" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E873" s="4" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="F873" s="4" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="12" t="s">
         <v>987</v>
       </c>
       <c r="B874" s="12" t="s">
-        <v>1100</v>
+        <v>1056</v>
       </c>
       <c r="C874" s="12" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D874" s="13" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E874" s="4" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="F874" s="4" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="12" t="s">
         <v>987</v>
       </c>
       <c r="B875" s="12" t="s">
-        <v>1100</v>
+        <v>1056</v>
       </c>
       <c r="C875" s="12" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D875" s="13" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E875" s="4" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="F875" s="4" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="12" t="s">
         <v>987</v>
       </c>
       <c r="B876" s="12" t="s">
-        <v>1100</v>
+        <v>1056</v>
       </c>
       <c r="C876" s="12" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D876" s="12" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E876" s="12" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="F876" s="4" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20954,19 +20943,19 @@
         <v>987</v>
       </c>
       <c r="B877" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C877" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D877" s="12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E877" s="12" t="s">
         <v>1117</v>
       </c>
-      <c r="C877" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D877" s="12" t="s">
+      <c r="F877" s="4" t="s">
         <v>1118</v>
-      </c>
-      <c r="E877" s="12" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F877" s="4" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20974,19 +20963,19 @@
         <v>987</v>
       </c>
       <c r="B878" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C878" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D878" s="12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E878" s="12" t="s">
         <v>1117</v>
       </c>
-      <c r="C878" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D878" s="12" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E878" s="12" t="s">
+      <c r="F878" s="4" t="s">
         <v>1119</v>
-      </c>
-      <c r="F878" s="4" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20994,19 +20983,19 @@
         <v>987</v>
       </c>
       <c r="B879" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C879" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D879" s="12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E879" s="12" t="s">
         <v>1117</v>
       </c>
-      <c r="C879" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D879" s="12" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E879" s="12" t="s">
-        <v>1119</v>
-      </c>
       <c r="F879" s="4" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21014,19 +21003,19 @@
         <v>987</v>
       </c>
       <c r="B880" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C880" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D880" s="12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E880" s="12" t="s">
         <v>1117</v>
       </c>
-      <c r="C880" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D880" s="12" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E880" s="12" t="s">
-        <v>1119</v>
-      </c>
       <c r="F880" s="4" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21034,19 +21023,19 @@
         <v>987</v>
       </c>
       <c r="B881" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C881" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D881" s="12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E881" s="12" t="s">
         <v>1117</v>
       </c>
-      <c r="C881" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D881" s="12" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E881" s="12" t="s">
-        <v>1119</v>
-      </c>
       <c r="F881" s="4" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21054,19 +21043,19 @@
         <v>987</v>
       </c>
       <c r="B882" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C882" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D882" s="12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E882" s="12" t="s">
         <v>1117</v>
       </c>
-      <c r="C882" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D882" s="12" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E882" s="12" t="s">
-        <v>1119</v>
-      </c>
       <c r="F882" s="4" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21074,19 +21063,19 @@
         <v>987</v>
       </c>
       <c r="B883" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C883" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D883" s="12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E883" s="12" t="s">
         <v>1117</v>
       </c>
-      <c r="C883" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D883" s="12" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E883" s="12" t="s">
-        <v>1119</v>
-      </c>
       <c r="F883" s="4" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21094,19 +21083,19 @@
         <v>987</v>
       </c>
       <c r="B884" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C884" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D884" s="12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E884" s="12" t="s">
         <v>1117</v>
       </c>
-      <c r="C884" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D884" s="12" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E884" s="12" t="s">
-        <v>1119</v>
-      </c>
       <c r="F884" s="4" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21114,19 +21103,19 @@
         <v>987</v>
       </c>
       <c r="B885" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C885" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D885" s="12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E885" s="12" t="s">
         <v>1117</v>
       </c>
-      <c r="C885" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D885" s="12" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E885" s="12" t="s">
-        <v>1119</v>
-      </c>
       <c r="F885" s="4" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21134,19 +21123,19 @@
         <v>987</v>
       </c>
       <c r="B886" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C886" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D886" s="12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E886" s="12" t="s">
         <v>1117</v>
       </c>
-      <c r="C886" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D886" s="12" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E886" s="12" t="s">
-        <v>1119</v>
-      </c>
       <c r="F886" s="7" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21154,19 +21143,19 @@
         <v>987</v>
       </c>
       <c r="B887" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C887" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D887" s="12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E887" s="12" t="s">
         <v>1117</v>
       </c>
-      <c r="C887" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D887" s="12" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E887" s="12" t="s">
-        <v>1119</v>
-      </c>
       <c r="F887" s="4" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21174,16 +21163,16 @@
         <v>987</v>
       </c>
       <c r="B888" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C888" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D888" s="12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E888" s="12" t="s">
         <v>1117</v>
-      </c>
-      <c r="C888" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D888" s="12" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E888" s="12" t="s">
-        <v>1119</v>
       </c>
       <c r="F888" s="4" t="s">
         <v>575</v>
@@ -21194,19 +21183,19 @@
         <v>987</v>
       </c>
       <c r="B889" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C889" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D889" s="12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E889" s="12" t="s">
         <v>1117</v>
       </c>
-      <c r="C889" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D889" s="12" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E889" s="12" t="s">
-        <v>1119</v>
-      </c>
       <c r="F889" s="4" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21214,19 +21203,19 @@
         <v>987</v>
       </c>
       <c r="B890" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C890" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D890" s="12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E890" s="12" t="s">
         <v>1117</v>
       </c>
-      <c r="C890" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D890" s="12" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E890" s="12" t="s">
-        <v>1119</v>
-      </c>
       <c r="F890" s="4" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21234,19 +21223,19 @@
         <v>987</v>
       </c>
       <c r="B891" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C891" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D891" s="12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E891" s="12" t="s">
         <v>1117</v>
       </c>
-      <c r="C891" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D891" s="12" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E891" s="12" t="s">
-        <v>1119</v>
-      </c>
       <c r="F891" s="4" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21254,19 +21243,19 @@
         <v>987</v>
       </c>
       <c r="B892" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C892" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D892" s="12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E892" s="12" t="s">
         <v>1117</v>
       </c>
-      <c r="C892" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D892" s="12" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E892" s="12" t="s">
-        <v>1119</v>
-      </c>
       <c r="F892" s="4" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21274,19 +21263,19 @@
         <v>987</v>
       </c>
       <c r="B893" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C893" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D893" s="12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E893" s="12" t="s">
         <v>1117</v>
       </c>
-      <c r="C893" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D893" s="12" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E893" s="12" t="s">
-        <v>1119</v>
-      </c>
       <c r="F893" s="4" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21294,19 +21283,19 @@
         <v>987</v>
       </c>
       <c r="B894" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C894" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D894" s="12" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E894" s="12" t="s">
         <v>1117</v>
       </c>
-      <c r="C894" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D894" s="12" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E894" s="12" t="s">
-        <v>1119</v>
-      </c>
       <c r="F894" s="4" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21314,19 +21303,19 @@
         <v>987</v>
       </c>
       <c r="B895" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C895" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D895" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E895" s="4" t="s">
         <v>1117</v>
       </c>
-      <c r="C895" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D895" s="4" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E895" s="4" t="s">
-        <v>1119</v>
-      </c>
       <c r="F895" s="4" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21334,16 +21323,16 @@
         <v>987</v>
       </c>
       <c r="B896" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C896" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D896" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="E896" s="4" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F896" s="10"/>
     </row>
@@ -21352,19 +21341,19 @@
         <v>987</v>
       </c>
       <c r="B897" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C897" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D897" s="4" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E897" s="4" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="F897" s="4" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21372,19 +21361,19 @@
         <v>987</v>
       </c>
       <c r="B898" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C898" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D898" s="4" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E898" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F898" s="4" t="s">
         <v>1140</v>
-      </c>
-      <c r="F898" s="4" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21392,19 +21381,19 @@
         <v>987</v>
       </c>
       <c r="B899" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C899" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D899" s="4" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E899" s="4" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="F899" s="7" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21412,19 +21401,19 @@
         <v>987</v>
       </c>
       <c r="B900" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C900" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D900" s="4" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E900" s="4" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="F900" s="4" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21432,19 +21421,19 @@
         <v>987</v>
       </c>
       <c r="B901" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C901" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D901" s="4" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E901" s="4" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="F901" s="4" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21452,19 +21441,19 @@
         <v>987</v>
       </c>
       <c r="B902" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C902" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D902" s="4" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E902" s="4" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="F902" s="4" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21472,16 +21461,16 @@
         <v>987</v>
       </c>
       <c r="B903" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C903" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D903" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E903" s="5" t="s">
         <v>1147</v>
-      </c>
-      <c r="C903" s="8" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D903" s="5" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E903" s="5" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21489,16 +21478,16 @@
         <v>987</v>
       </c>
       <c r="B904" s="5" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C904" s="8" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D904" s="5" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E904" s="5" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21506,19 +21495,19 @@
         <v>987</v>
       </c>
       <c r="B905" s="5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C905" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D905" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E905" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F905" s="4" t="s">
         <v>1152</v>
-      </c>
-      <c r="C905" s="8" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D905" s="2" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E905" s="2" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F905" s="4" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21526,19 +21515,19 @@
         <v>987</v>
       </c>
       <c r="B906" s="5" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C906" s="8" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D906" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E906" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F906" s="4" t="s">
         <v>1153</v>
-      </c>
-      <c r="E906" s="2" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F906" s="4" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21546,19 +21535,19 @@
         <v>987</v>
       </c>
       <c r="B907" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C907" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D907" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="C907" s="3" t="s">
+      <c r="E907" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="D907" s="2" t="s">
+      <c r="F907" s="4" t="s">
         <v>1158</v>
-      </c>
-      <c r="E907" s="2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="F907" s="4" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21566,19 +21555,19 @@
         <v>987</v>
       </c>
       <c r="B908" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C908" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D908" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="C908" s="3" t="s">
+      <c r="E908" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="D908" s="2" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E908" s="2" t="s">
+      <c r="F908" s="4" t="s">
         <v>1159</v>
-      </c>
-      <c r="F908" s="4" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21586,19 +21575,19 @@
         <v>987</v>
       </c>
       <c r="B909" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C909" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D909" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="C909" s="3" t="s">
+      <c r="E909" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="D909" s="2" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E909" s="2" t="s">
-        <v>1159</v>
-      </c>
       <c r="F909" s="4" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21606,19 +21595,19 @@
         <v>987</v>
       </c>
       <c r="B910" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C910" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D910" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="C910" s="3" t="s">
+      <c r="E910" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="D910" s="2" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E910" s="2" t="s">
-        <v>1159</v>
-      </c>
       <c r="F910" s="4" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21626,19 +21615,19 @@
         <v>987</v>
       </c>
       <c r="B911" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C911" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D911" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E911" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="F911" s="4" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21646,19 +21635,19 @@
         <v>987</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C912" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D912" s="2" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E912" s="2" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F912" s="4" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21666,19 +21655,19 @@
         <v>987</v>
       </c>
       <c r="B913" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C913" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D913" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E913" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F913" s="4" t="s">
         <v>1165</v>
-      </c>
-      <c r="E913" s="2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="F913" s="4" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21686,19 +21675,19 @@
         <v>987</v>
       </c>
       <c r="B914" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C914" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D914" s="2" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E914" s="2" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="F914" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21706,19 +21695,19 @@
         <v>987</v>
       </c>
       <c r="B915" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C915" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D915" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E915" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F915" s="4" t="s">
         <v>1168</v>
-      </c>
-      <c r="E915" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F915" s="4" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21726,19 +21715,19 @@
         <v>987</v>
       </c>
       <c r="B916" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C916" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D916" s="2" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E916" s="2" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="F916" s="4" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21746,139 +21735,139 @@
         <v>987</v>
       </c>
       <c r="B917" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C917" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D917" s="2" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E917" s="2" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="F917" s="4" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="918" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="4" t="s">
         <v>987</v>
       </c>
       <c r="B918" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C918" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D918" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E918" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F918" s="4" t="s">
         <v>1173</v>
       </c>
-      <c r="C918" s="3" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D918" s="2" t="s">
-        <v>1174</v>
-      </c>
-      <c r="E918" s="2" t="s">
-        <v>1175</v>
-      </c>
-      <c r="F918" s="4" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="919" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="4" t="s">
         <v>987</v>
       </c>
       <c r="B919" s="2" t="s">
-        <v>1173</v>
+        <v>1154</v>
       </c>
       <c r="C919" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D919" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E919" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F919" s="4" t="s">
         <v>1174</v>
       </c>
-      <c r="E919" s="2" t="s">
-        <v>1175</v>
-      </c>
-      <c r="F919" s="4" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="920" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="4" t="s">
         <v>987</v>
       </c>
       <c r="B920" s="2" t="s">
-        <v>1173</v>
+        <v>1154</v>
       </c>
       <c r="C920" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D920" s="2" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="E920" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F920" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="F920" s="4" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="921" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="4" t="s">
         <v>987</v>
       </c>
       <c r="B921" s="2" t="s">
-        <v>1173</v>
+        <v>1154</v>
       </c>
       <c r="C921" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D921" s="2" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="E921" s="2" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="F921" s="4" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="922" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="4" t="s">
         <v>987</v>
       </c>
       <c r="B922" s="2" t="s">
-        <v>1173</v>
+        <v>1154</v>
       </c>
       <c r="C922" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D922" s="2" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="E922" s="2" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="F922" s="4" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="923" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="4" t="s">
         <v>987</v>
       </c>
       <c r="B923" s="2" t="s">
-        <v>1173</v>
+        <v>1154</v>
       </c>
       <c r="C923" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D923" s="2" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="E923" s="2" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="F923" s="4" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21886,19 +21875,19 @@
         <v>987</v>
       </c>
       <c r="B924" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C924" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D924" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E924" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="C924" s="3" t="s">
+      <c r="F924" s="4" t="s">
         <v>1183</v>
-      </c>
-      <c r="D924" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E924" s="2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="F924" s="4" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21906,19 +21895,19 @@
         <v>987</v>
       </c>
       <c r="B925" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C925" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D925" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E925" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="C925" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D925" s="2" t="s">
+      <c r="F925" s="4" t="s">
         <v>1184</v>
-      </c>
-      <c r="E925" s="2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="F925" s="4" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21926,19 +21915,19 @@
         <v>987</v>
       </c>
       <c r="B926" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C926" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D926" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E926" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="C926" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D926" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E926" s="2" t="s">
+      <c r="F926" s="4" t="s">
         <v>1185</v>
-      </c>
-      <c r="F926" s="4" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21946,19 +21935,19 @@
         <v>987</v>
       </c>
       <c r="B927" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C927" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D927" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E927" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="C927" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D927" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E927" s="2" t="s">
-        <v>1185</v>
-      </c>
       <c r="F927" s="4" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21966,19 +21955,19 @@
         <v>987</v>
       </c>
       <c r="B928" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C928" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D928" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E928" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="C928" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D928" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E928" s="2" t="s">
-        <v>1185</v>
-      </c>
       <c r="F928" s="4" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21986,19 +21975,19 @@
         <v>987</v>
       </c>
       <c r="B929" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C929" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D929" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E929" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="C929" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D929" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E929" s="2" t="s">
-        <v>1185</v>
-      </c>
       <c r="F929" s="4" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22006,19 +21995,19 @@
         <v>987</v>
       </c>
       <c r="B930" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C930" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D930" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E930" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="C930" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D930" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E930" s="2" t="s">
-        <v>1185</v>
-      </c>
       <c r="F930" s="4" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22026,19 +22015,19 @@
         <v>987</v>
       </c>
       <c r="B931" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C931" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D931" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E931" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="C931" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D931" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E931" s="2" t="s">
-        <v>1185</v>
-      </c>
       <c r="F931" s="4" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22046,19 +22035,19 @@
         <v>987</v>
       </c>
       <c r="B932" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C932" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D932" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E932" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="C932" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D932" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E932" s="2" t="s">
-        <v>1185</v>
-      </c>
       <c r="F932" s="4" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22066,19 +22055,19 @@
         <v>987</v>
       </c>
       <c r="B933" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C933" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D933" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E933" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="C933" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D933" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E933" s="2" t="s">
-        <v>1185</v>
-      </c>
       <c r="F933" s="4" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22086,19 +22075,19 @@
         <v>987</v>
       </c>
       <c r="B934" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C934" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D934" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E934" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="C934" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D934" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E934" s="2" t="s">
-        <v>1185</v>
-      </c>
       <c r="F934" s="4" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22106,19 +22095,19 @@
         <v>987</v>
       </c>
       <c r="B935" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C935" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D935" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E935" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="C935" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D935" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E935" s="2" t="s">
-        <v>1185</v>
-      </c>
       <c r="F935" s="4" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22126,19 +22115,19 @@
         <v>987</v>
       </c>
       <c r="B936" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C936" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D936" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E936" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="C936" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D936" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E936" s="2" t="s">
-        <v>1185</v>
-      </c>
       <c r="F936" s="4" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22146,19 +22135,19 @@
         <v>987</v>
       </c>
       <c r="B937" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C937" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D937" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E937" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="C937" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D937" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E937" s="2" t="s">
-        <v>1185</v>
-      </c>
       <c r="F937" s="4" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22166,19 +22155,19 @@
         <v>987</v>
       </c>
       <c r="B938" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C938" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D938" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E938" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="C938" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D938" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E938" s="2" t="s">
-        <v>1185</v>
-      </c>
       <c r="F938" s="4" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22186,19 +22175,19 @@
         <v>987</v>
       </c>
       <c r="B939" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C939" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D939" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E939" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="C939" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D939" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E939" s="2" t="s">
-        <v>1185</v>
-      </c>
       <c r="F939" s="4" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22206,19 +22195,19 @@
         <v>987</v>
       </c>
       <c r="B940" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C940" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D940" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E940" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="C940" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D940" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E940" s="2" t="s">
-        <v>1185</v>
-      </c>
       <c r="F940" s="4" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22226,19 +22215,19 @@
         <v>987</v>
       </c>
       <c r="B941" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C941" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D941" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E941" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="C941" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D941" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E941" s="2" t="s">
-        <v>1185</v>
-      </c>
       <c r="F941" s="4" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22246,19 +22235,19 @@
         <v>987</v>
       </c>
       <c r="B942" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C942" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D942" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E942" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="C942" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D942" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E942" s="2" t="s">
-        <v>1185</v>
-      </c>
       <c r="F942" s="4" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22266,19 +22255,19 @@
         <v>987</v>
       </c>
       <c r="B943" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C943" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D943" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E943" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="C943" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D943" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E943" s="2" t="s">
-        <v>1185</v>
-      </c>
       <c r="F943" s="4" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -22286,19 +22275,19 @@
         <v>987</v>
       </c>
       <c r="B944" s="2" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C944" s="3" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="D944" s="2" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="E944" s="2" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="F944" s="4" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22306,59 +22295,59 @@
         <v>987</v>
       </c>
       <c r="B945" s="2" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C945" s="3" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="D945" s="2" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="E945" s="2" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="F945" s="4" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="946" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="4" t="s">
         <v>987</v>
       </c>
       <c r="B946" s="2" t="s">
-        <v>1211</v>
+        <v>1179</v>
       </c>
       <c r="C946" s="3" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="D946" s="2" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="E946" s="2" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="F946" s="4" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="947" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="4" t="s">
         <v>987</v>
       </c>
       <c r="B947" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C947" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D947" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E947" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F947" s="4" t="s">
         <v>1211</v>
-      </c>
-      <c r="C947" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D947" s="2" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E947" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F947" s="4" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22366,19 +22355,19 @@
         <v>987</v>
       </c>
       <c r="B948" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C948" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D948" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E948" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F948" s="4" t="s">
         <v>1216</v>
-      </c>
-      <c r="C948" s="5" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D948" s="2" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E948" s="2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="F948" s="4" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22386,19 +22375,19 @@
         <v>987</v>
       </c>
       <c r="B949" s="5" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C949" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D949" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E949" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F949" s="4" t="s">
         <v>1217</v>
-      </c>
-      <c r="D949" s="2" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E949" s="2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="F949" s="4" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22406,19 +22395,19 @@
         <v>987</v>
       </c>
       <c r="B950" s="5" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C950" s="5" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="D950" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E950" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F950" s="4" t="s">
         <v>1218</v>
-      </c>
-      <c r="E950" s="2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="F950" s="4" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
